--- a/Offline/TeacherRecruitment/CV/FacultyContactDetails.xlsx
+++ b/Offline/TeacherRecruitment/CV/FacultyContactDetails.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\TeacherRecruitment\FaceBookAdForTeacherRecruitments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\TeacherRecruitment\CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE7AF70-9C67-46CC-B4FC-A4405CD7CB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0503BB2C-F365-46AE-9531-AA369F02F72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="107">
   <si>
     <t>SlNo</t>
   </si>
@@ -276,12 +276,6 @@
     <t>Biology</t>
   </si>
   <si>
-    <t>Indrani-Bannerjee</t>
-  </si>
-  <si>
-    <t>8420371183, 6291283168</t>
-  </si>
-  <si>
     <t>Microsoft Azure Cloud</t>
   </si>
   <si>
@@ -337,9 +331,6 @@
   </si>
   <si>
     <t>Advanced IoT, Robotics</t>
-  </si>
-  <si>
-    <t>Physcology</t>
   </si>
   <si>
     <t>Debolina Sen</t>
@@ -793,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1022,7 +1013,7 @@
         <v>56</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13" t="s">
@@ -1048,67 +1039,50 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17">
         <v>45139</v>
       </c>
-      <c r="C12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>80</v>
+      <c r="F12" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="17">
-        <v>45139</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12">
+        <v>45140</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="D13" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18" t="s">
+      <c r="E13" s="16">
+        <v>8420053867</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="12">
-        <v>45140</v>
-      </c>
-      <c r="C14" s="13" t="s">
+      <c r="G13" s="13"/>
+      <c r="H13" s="13" t="s">
         <v>106</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="16">
-        <v>8420053867</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1177,7 +1151,7 @@
     </row>
     <row r="11" spans="8:8" ht="36" x14ac:dyDescent="0.3">
       <c r="H11" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="8:8" x14ac:dyDescent="0.3">
@@ -1197,47 +1171,47 @@
     </row>
     <row r="15" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H15" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H16" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H17" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H18" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H19" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H20" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H21" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H22" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H23" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="8:8" x14ac:dyDescent="0.3">
@@ -1267,7 +1241,7 @@
     </row>
     <row r="29" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H29" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="8:8" x14ac:dyDescent="0.3">
@@ -1282,42 +1256,42 @@
     </row>
     <row r="32" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H32" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H33" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H34" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H35" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H36" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H37" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H38" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H39" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
